--- a/leads_to_email.xlsx
+++ b/leads_to_email.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +661,16 @@
       <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Emails Sent Count</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Campaign</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Campaign Name</t>
         </is>
       </c>
     </row>
@@ -753,7 +763,7 @@
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -766,7 +776,7 @@
         </is>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
@@ -775,53 +785,63 @@
       </c>
       <c r="AS2" t="n">
         <v>3</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>call0325_email4</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vice President, Sales &amp; Marketing</t>
+          <t>Vice President</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tilton Engineering</t>
+          <t>I&amp;M Industrials, Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.tiltonracing.com</t>
+          <t>http://www.iandmindustrials.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kirk</t>
+          <t>dani</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skaufel</t>
+          <t>dani</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+1 805-688-2353</t>
+          <t>+1 864-277-2450</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>andre.copy@outlook.com</t>
+          <t>davidandrealeman@gmail.com</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>http://www.linkedin.com/in/kirk-skaufel-83077646</t>
+          <t>http://www.linkedin.com/in/tracy-mardre-a5618814</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -832,9 +852,11 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" s="2" t="n">
-        <v>45739</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>45734</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>45734</v>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
@@ -844,11 +866,25 @@
       <c r="R3" s="2" t="n">
         <v>45740</v>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -866,28 +902,38 @@
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Day 4 Action 1</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="AS3" t="n">
         <v>1</v>
       </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Day 1 Action 1</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="AS3" t="n">
-        <v>3</v>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>1715364</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>call0325_email2</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -913,12 +959,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>dani</t>
+          <t>lll</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>dani</t>
+          <t>lll</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -927,11 +973,7 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>davidandrealeman@gmail.com</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>http://www.linkedin.com/in/tracy-mardre-a5618814</t>
@@ -957,7 +999,7 @@
         </is>
       </c>
       <c r="R4" s="2" t="n">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -995,7 +1037,7 @@
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1008,249 +1050,21 @@
         </is>
       </c>
       <c r="AQ4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
+        <v>-3</v>
+      </c>
+      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Vice President</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>South Carolina</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>I&amp;M Industrials, Inc.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>http://www.iandmindustrials.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>lll</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>lll</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>+1 864-277-2450</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>http://www.linkedin.com/in/tracy-mardre-a5618814</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>45735</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Call</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>LinkedIn</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Day 4 Action 1</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="AQ5" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Vice President</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>South Carolina</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>I&amp;M Industrials, Inc.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>http://www.iandmindustrials.com</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>fff</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>fff</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>+1 864-277-2450</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>davidandrealeman@outlook.com</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>http://www.linkedin.com/in/tracy-mardre-a5618814</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" s="2" t="n">
-        <v>45739</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Day 4 Action 1</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="AQ6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="AS6" t="n">
-        <v>1</v>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>1669416</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>call0325_email1</t>
+        </is>
       </c>
     </row>
   </sheetData>
